--- a/data/trans_camb/P28B_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,71</t>
+          <t>-18,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,28</t>
+          <t>-31,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-32,53</t>
+          <t>-33,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,72</t>
+          <t>-32,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,09</t>
+          <t>-30,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,1</t>
+          <t>-42,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,3</t>
+          <t>-26,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,42</t>
+          <t>-31,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-35,96</t>
+          <t>-39,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -0,91</t>
+          <t>-41,59; 5,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,15; -8,33</t>
+          <t>-52,97; -7,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -16,53</t>
+          <t>-55,37; -9,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,88; -12,02</t>
+          <t>-51,0; -14,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-47,61; -15,7</t>
+          <t>-49,22; -10,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,81; -22,0</t>
+          <t>-61,1; -23,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,65; -12,61</t>
+          <t>-40,89; -11,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,5; -19,42</t>
+          <t>-45,45; -16,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,98; -24,85</t>
+          <t>-53,22; -25,17</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-42,89%</t>
+          <t>-37,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-62,56%</t>
+          <t>-65,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,57%</t>
+          <t>-69,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-49,34%</t>
+          <t>-53,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,13%</t>
+          <t>-50,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>-71,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-47,11%</t>
+          <t>-47,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,99%</t>
+          <t>-56,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-69,73%</t>
+          <t>-71,1%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,65; 0,03</t>
+          <t>-70,9; 18,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,45; -22,32</t>
+          <t>-90,64; -16,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,6; -43,76</t>
+          <t>-92,64; -18,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,3; -23,96</t>
+          <t>-74,19; -24,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,31; -32,26</t>
+          <t>-71,96; -20,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,69; -42,45</t>
+          <t>-86,4; -46,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,74; -27,34</t>
+          <t>-66,08; -21,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,84; -41,98</t>
+          <t>-73,3; -33,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,94; -54,14</t>
+          <t>-84,28; -50,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,21</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,84</t>
+          <t>-20,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,81</t>
+          <t>-24,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,61</t>
+          <t>-31,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,91</t>
+          <t>-16,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-20,33</t>
+          <t>-22,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 20,9</t>
+          <t>-20,25; 41,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 3,62</t>
+          <t>-25,68; 7,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,79; -1,73</t>
+          <t>-27,66; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,32; -3,0</t>
+          <t>-39,6; -0,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,84; -11,9</t>
+          <t>-41,6; -6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,67; -10,31</t>
+          <t>-48,24; -14,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 3,01</t>
+          <t>-23,3; 13,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -6,78</t>
+          <t>-30,26; -1,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,03; -9,83</t>
+          <t>-35,44; -7,57</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>-45,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-62,12%</t>
+          <t>-61,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,26%</t>
+          <t>-37,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,69%</t>
+          <t>-43,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-49,3%</t>
+          <t>-56,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-31,0%</t>
+          <t>-23,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,38%</t>
+          <t>-45,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-54,91%</t>
+          <t>-60,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,81; 162,06</t>
+          <t>-87,78; 593,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 28,45</t>
+          <t>-83,59; 78,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,77; -1,07</t>
+          <t>-90,57; 34,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -6,61</t>
+          <t>-60,8; 0,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,11; -26,29</t>
+          <t>-66,64; -14,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,95; -23,12</t>
+          <t>-77,85; -28,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 11,1</t>
+          <t>-53,97; 49,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; -22,67</t>
+          <t>-67,15; -7,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,23; -31,83</t>
+          <t>-77,99; -28,71</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,69</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-23,75</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-24,77</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-27,51</t>
+          <t>-31,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,37</t>
+          <t>-42,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-33,72</t>
+          <t>-38,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-22,52</t>
+          <t>-20,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-29,48</t>
+          <t>-29,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-29,66</t>
+          <t>-27,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-32,37; -0,94</t>
+          <t>-22,5; 11,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-37,45; -10,74</t>
+          <t>-27,09; 6,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -11,23</t>
+          <t>-26,74; 7,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-39,41; -16,41</t>
+          <t>-43,74; -19,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-44,61; -23,25</t>
+          <t>-53,8; -30,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,26; -23,56</t>
+          <t>-50,22; -26,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,83; -13,22</t>
+          <t>-32,39; -10,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,78; -21,4</t>
+          <t>-40,68; -20,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-37,45; -21,12</t>
+          <t>-38,98; -17,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,31%</t>
+          <t>-14,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,93%</t>
+          <t>-29,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,33%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-50,95%</t>
+          <t>-52,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-63,67%</t>
+          <t>-72,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-62,45%</t>
+          <t>-66,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-46,28%</t>
+          <t>-42,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>-60,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-60,94%</t>
+          <t>-56,58%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,06; -1,56</t>
+          <t>-51,14; 48,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,54; -27,73</t>
+          <t>-65,18; 28,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,85; -30,19</t>
+          <t>-63,92; 33,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -33,51</t>
+          <t>-68,15; -35,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-75,01; -47,61</t>
+          <t>-82,58; -55,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,04; -48,18</t>
+          <t>-78,42; -48,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,73; -30,56</t>
+          <t>-58,51; -22,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,92; -47,69</t>
+          <t>-73,55; -45,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,14; -46,99</t>
+          <t>-70,32; -40,64</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-19,75</t>
+          <t>-19,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-23,89</t>
+          <t>-24,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-28,93</t>
+          <t>-23,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,25</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,86</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,88</t>
+          <t>-17,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-21,1</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-21,7</t>
+          <t>-16,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-25,21</t>
+          <t>-20,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -8,82</t>
+          <t>-33,38; -4,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-34,5; -12,71</t>
+          <t>-37,14; -8,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,23; -18,23</t>
+          <t>-36,86; -8,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-32,93; -13,09</t>
+          <t>-26,34; -0,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,57; -9,58</t>
+          <t>-22,29; 4,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,53; -11,36</t>
+          <t>-29,52; -5,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -13,73</t>
+          <t>-25,8; -6,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-29,33; -13,84</t>
+          <t>-26,15; -5,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-33,23; -18,44</t>
+          <t>-30,06; -10,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,67%</t>
+          <t>-46,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-54,03%</t>
+          <t>-58,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-65,43%</t>
+          <t>-56,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-43,68%</t>
+          <t>-27,75%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,99%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,96%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-36,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-45,31%</t>
+          <t>-37,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-52,64%</t>
+          <t>-46,88%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,55; -22,29</t>
+          <t>-67,98; -12,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,28; -32,47</t>
+          <t>-76,54; -24,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,35; -44,4</t>
+          <t>-75,87; -21,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,27; -27,61</t>
+          <t>-50,21; -0,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -20,14</t>
+          <t>-44,66; 12,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -24,59</t>
+          <t>-57,33; -13,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,2; -30,39</t>
+          <t>-52,94; -15,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,77; -31,7</t>
+          <t>-53,42; -15,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,01; -40,91</t>
+          <t>-60,87; -27,44</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-16,34</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-20,2</t>
+          <t>-16,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>-15,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-26,83</t>
+          <t>-31,27</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-12,38</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-11,57</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-21,44</t>
+          <t>-22,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 10,5</t>
+          <t>-17,74; 18,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 6,65</t>
+          <t>-19,85; 17,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-26,83; -5,63</t>
+          <t>-29,66; -1,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,8; -7,11</t>
+          <t>-34,22; 4,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,93; -1,02</t>
+          <t>-32,6; 5,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-38,58; -14,71</t>
+          <t>-47,94; -13,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -2,6</t>
+          <t>-20,01; 5,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-20,86; -1,71</t>
+          <t>-20,5; 6,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-29,46; -12,87</t>
+          <t>-33,75; -11,5</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,1%</t>
+          <t>-12,85%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-53,45%</t>
+          <t>-51,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-46,12%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-33,29%</t>
+          <t>-31,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-61,24%</t>
+          <t>-63,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-33,47%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>-23,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-57,94%</t>
+          <t>-57,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 44,73</t>
+          <t>-48,9; 82,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 29,97</t>
+          <t>-50,93; 80,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-73,44; -20,73</t>
+          <t>-76,18; -4,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-64,84; -21,28</t>
+          <t>-59,86; 11,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -2,56</t>
+          <t>-56,58; 14,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-76,68; -36,44</t>
+          <t>-82,41; -31,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,89; -9,13</t>
+          <t>-44,81; 19,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -3,52</t>
+          <t>-47,27; 19,38</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-71,0; -38,72</t>
+          <t>-75,15; -35,24</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-25,69</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-26,18</t>
+          <t>-25,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-21,83</t>
+          <t>-18,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-16,41</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,72</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,19</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-20,47</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-17,76</t>
+          <t>-16,26</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-10,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-36,82; -14,54</t>
+          <t>-35,1; -0,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-37,18; -14,85</t>
+          <t>-41,39; -10,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-33,55; -9,94</t>
+          <t>-37,25; -0,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-31,25; -4,08</t>
+          <t>-24,21; 13,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 0,45</t>
+          <t>-28,88; 11,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 5,75</t>
+          <t>-24,19; 15,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -11,31</t>
+          <t>-25,35; 2,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-27,28; -8,26</t>
+          <t>-28,59; -2,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -4,6</t>
+          <t>-24,58; 3,66</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-82,75%</t>
+          <t>-66,55%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-84,34%</t>
+          <t>-91,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-70,32%</t>
+          <t>-65,27%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-56,11%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-40,07%</t>
+          <t>-28,58%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-31,41%</t>
+          <t>-13,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-68,14%</t>
+          <t>-42,46%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-59,12%</t>
+          <t>-56,78%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-47,71%</t>
+          <t>-36,16%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-95,6; -56,9</t>
+          <t>-91,74; 35,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-95,74; -60,4</t>
+          <t>-100,0; 5,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-89,17; -35,89</t>
+          <t>-92,85; 16,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-78,63; -15,58</t>
+          <t>-64,2; 82,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 3,79</t>
+          <t>-73,01; 72,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-68,97; 29,61</t>
+          <t>-64,71; 79,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-82,36; -44,23</t>
+          <t>-71,78; 12,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -31,27</t>
+          <t>-80,52; -6,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-68,99; -13,56</t>
+          <t>-66,64; 21,02</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-19,49</t>
+          <t>-16,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-23,07</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-22,34</t>
+          <t>-20,93</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-23,37</t>
+          <t>-23,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>-28,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-18,74</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-21,64</t>
+          <t>-20,22</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-24,71</t>
+          <t>-24,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -7,38</t>
+          <t>-16,47; 1,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-24,38; -13,73</t>
+          <t>-23,08; -9,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -17,69</t>
+          <t>-25,46; -11,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-27,93; -17,36</t>
+          <t>-28,58; -13,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-28,54; -18,29</t>
+          <t>-29,78; -15,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-31,61; -20,61</t>
+          <t>-35,22; -21,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-22,79; -14,57</t>
+          <t>-21,04; -10,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-25,41; -17,9</t>
+          <t>-25,43; -14,87</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-28,43; -21,11</t>
+          <t>-28,97; -19,29</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-40,72%</t>
+          <t>-27,79%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-54,19%</t>
+          <t>-48,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-55,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-46,23%</t>
+          <t>-41,21%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>-46,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-53,26%</t>
+          <t>-56,11%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-50,87%</t>
+          <t>-47,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-58,09%</t>
+          <t>-56,21%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,66; -21,85</t>
+          <t>-44,59; 5,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-63,52; -41,39</t>
+          <t>-62,18; -28,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -52,69</t>
+          <t>-67,37; -37,41</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -37,26</t>
+          <t>-52,07; -29,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -40,18</t>
+          <t>-55,37; -33,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,52; -45,11</t>
+          <t>-64,94; -45,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -35,13</t>
+          <t>-46,14; -24,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-57,02; -43,91</t>
+          <t>-55,44; -37,05</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-63,77; -51,34</t>
+          <t>-63,57; -47,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
